--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26EBF9-9F4A-486D-93E9-91E9A253095D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BF616-93FB-4D38-B5EB-F50D1141165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="2445" yWindow="195" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -104,13 +104,13 @@
     <t>Promocion</t>
   </si>
   <si>
-    <t>{{item.BeneficioAplicado}}</t>
-  </si>
-  <si>
-    <t>{{item.Vigencia}}</t>
-  </si>
-  <si>
-    <t>{{item.Promocion}}</t>
+    <t>{{item.CantidadDescuento}}</t>
+  </si>
+  <si>
+    <t>{{item.Fecha}}</t>
+  </si>
+  <si>
+    <t>{{item.TipoDescuento}}</t>
   </si>
 </sst>
 </file>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,9 +196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,13 +572,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
@@ -590,14 +588,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
@@ -629,7 +627,7 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BF616-93FB-4D38-B5EB-F50D1141165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F504324-6A16-4F47-BCFB-D006D4AA5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="195" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Lealtades">Lealtades!$A$4:$F$5</definedName>
+    <definedName name="Lealtades">Lealtades!$A$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Clave</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>{{item.TipoDescuento}}</t>
+  </si>
+  <si>
+    <t>Lista de preio</t>
+  </si>
+  <si>
+    <t>{{item.IdListaPrecios}}</t>
   </si>
 </sst>
 </file>
@@ -572,7 +578,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +589,7 @@
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,7 +602,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,9 +622,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -637,6 +645,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -645,7 +656,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F504324-6A16-4F47-BCFB-D006D4AA5808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A93DD-2EA9-4523-BF87-A391D4AABA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1560" yWindow="195" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Fecha de Vigencia</t>
   </si>
   <si>
-    <t>Promocion</t>
-  </si>
-  <si>
     <t>{{item.CantidadDescuento}}</t>
   </si>
   <si>
@@ -113,10 +110,13 @@
     <t>{{item.TipoDescuento}}</t>
   </si>
   <si>
-    <t>Lista de preio</t>
-  </si>
-  <si>
     <t>{{item.IdListaPrecios}}</t>
+  </si>
+  <si>
+    <t>Lista de precio</t>
+  </si>
+  <si>
+    <t>Promoción</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -636,16 +636,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5A93DD-2EA9-4523-BF87-A391D4AABA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34B96A-BCB3-403B-9EE7-DC6A79202011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="195" windowWidth="14280" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="1905" yWindow="195" windowWidth="14865" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -110,13 +110,13 @@
     <t>{{item.TipoDescuento}}</t>
   </si>
   <si>
-    <t>{{item.IdListaPrecios}}</t>
-  </si>
-  <si>
     <t>Lista de precio</t>
   </si>
   <si>
     <t>Promoción</t>
+  </si>
+  <si>
+    <t>{{item.PrecioLista}}</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +619,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>

--- a/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/loyalty/LealtadesListado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Catalog\wwwroot\layout\excel\loyalty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34B96A-BCB3-403B-9EE7-DC6A79202011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7EA3AF-FF06-4186-9BA4-AD4E19899413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="195" windowWidth="14865" windowHeight="10875" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Lealtades" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -116,7 +115,7 @@
     <t>Promoción</t>
   </si>
   <si>
-    <t>{{item.PrecioLista}}</t>
+    <t>{{item.ListaPrecio}}</t>
   </si>
 </sst>
 </file>
@@ -191,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +200,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -578,7 +580,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,21 +590,21 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="74.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -644,7 +646,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
